--- a/Banco de dados/Modelagens/Loggex-modelo-fisico.xlsx
+++ b/Banco de dados/Modelagens/Loggex-modelo-fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50374464812.INFOSCS\Desktop\adada\Backend-Loggex\Banco de dados\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{327A1258-B319-4875-8FB9-80C63DC1EE76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49DF079-1510-4C90-8C4D-E56610C9B3DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{71493EB3-A1F5-4AF9-BC1F-4FAAD26894E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="165">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -474,25 +474,52 @@
     <t>volumeCarga</t>
   </si>
   <si>
-    <t>desricao</t>
-  </si>
-  <si>
     <t>Paraty-RJ</t>
   </si>
   <si>
     <t>São Paulo-SP</t>
   </si>
   <si>
-    <t>Bahia</t>
-  </si>
-  <si>
-    <t>Ceará</t>
-  </si>
-  <si>
     <t>Alimentícios</t>
   </si>
   <si>
     <t>500kg</t>
+  </si>
+  <si>
+    <t>Salvador-BA</t>
+  </si>
+  <si>
+    <t>Porto Seguro-BA</t>
+  </si>
+  <si>
+    <t>Produtor Quimicos</t>
+  </si>
+  <si>
+    <t>430kg</t>
+  </si>
+  <si>
+    <t>30m³</t>
+  </si>
+  <si>
+    <t>20m³</t>
+  </si>
+  <si>
+    <t>Essa carga contém carnes</t>
+  </si>
+  <si>
+    <t>Essa carga é perigosa, pois contem produtos quimicos</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>idChecklist</t>
+  </si>
+  <si>
+    <t>gestor</t>
+  </si>
+  <si>
+    <t>idGestor</t>
   </si>
 </sst>
 </file>
@@ -609,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -617,58 +644,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -676,19 +660,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -704,27 +678,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -732,19 +691,65 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1061,17 +1066,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD901B-21F1-4AED-B0AC-9852B237E28A}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:Z79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
@@ -1079,1134 +1084,1220 @@
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" customWidth="1"/>
+    <col min="12" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="45">
         <v>32373</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="48">
         <v>12345678910</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="45">
         <v>31136</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="48">
         <v>98765432198</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
         <v>3</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="45">
         <v>33228</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="48">
         <v>97561230518</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>1</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="10">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="44">
         <v>29789140</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>2</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="44">
         <v>12345678</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>3</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="44">
         <v>10273947</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="43"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="43"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="E20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="G20" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
-        <v>2</v>
-      </c>
-      <c r="B21" s="17">
-        <v>2</v>
-      </c>
-      <c r="C21" s="17">
-        <v>1</v>
-      </c>
-      <c r="D21" s="10">
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="43"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>2</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
         <v>123456789</v>
       </c>
-      <c r="E21" s="11">
+      <c r="D21" s="7">
         <v>36302</v>
       </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="46">
         <v>12345678</v>
       </c>
-      <c r="H21" s="31">
+      <c r="G21" s="19">
         <v>7</v>
       </c>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <v>3</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="11">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>987654321</v>
+      </c>
+      <c r="D22" s="7">
+        <v>39696</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="46">
+        <v>98765432</v>
+      </c>
+      <c r="G22" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="D24" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="G24" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>1</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
+        <v>2</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="16">
+        <v>2</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
         <v>3</v>
       </c>
-      <c r="C22" s="17">
-        <v>2</v>
-      </c>
-      <c r="D22" s="10">
-        <v>987654321</v>
-      </c>
-      <c r="E22" s="11">
-        <v>39696</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>98765432</v>
-      </c>
-      <c r="H22" s="31">
+      <c r="B28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="16">
+        <v>3</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="14">
+        <v>4</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="12">
+        <v>4</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="16">
+        <v>4</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>5</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="12">
+        <v>5</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="16">
+        <v>5</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>6</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="16">
+        <v>6</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>7</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="16">
+        <v>7</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>8</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="16">
+        <v>8</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G34" s="16">
         <v>9</v>
       </c>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="D24" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="G24" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="H34" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G35" s="16">
+        <v>10</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="23" t="s">
+      <c r="C38" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
-        <v>1</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="18">
-        <v>1</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="23">
-        <v>1</v>
-      </c>
-      <c r="H26" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
-        <v>2</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="18">
-        <v>2</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="23">
-        <v>2</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
+      <c r="D38" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="18">
+        <v>1</v>
+      </c>
+      <c r="B39" s="18">
+        <v>2</v>
+      </c>
+      <c r="C39" s="18">
         <v>3</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="18">
+      <c r="D39" s="18">
         <v>3</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="23">
+      <c r="E39" s="18">
+        <v>1</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="18">
+        <v>47705773937</v>
+      </c>
+      <c r="H39" s="18">
+        <v>2018</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="L39" s="18">
+        <v>1</v>
+      </c>
+      <c r="M39" s="18">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="18">
+        <v>4</v>
+      </c>
+      <c r="B40" s="18">
+        <v>2</v>
+      </c>
+      <c r="C40" s="18">
+        <v>5</v>
+      </c>
+      <c r="D40" s="18">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18">
+        <v>2</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="18">
+        <v>73939448020</v>
+      </c>
+      <c r="H40" s="18">
+        <v>2022</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L40" s="18">
+        <v>0</v>
+      </c>
+      <c r="M40" s="18">
+        <v>25320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <v>5</v>
+      </c>
+      <c r="B41" s="18">
+        <v>4</v>
+      </c>
+      <c r="C41" s="18">
+        <v>1</v>
+      </c>
+      <c r="D41" s="18">
+        <v>2</v>
+      </c>
+      <c r="E41" s="18">
         <v>3</v>
       </c>
-      <c r="H28" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
+      <c r="F41" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="18">
+        <v>59473770008</v>
+      </c>
+      <c r="H41" s="18">
+        <v>2020</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L41" s="18">
+        <v>0</v>
+      </c>
+      <c r="M41" s="18">
+        <v>12934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
+        <v>8</v>
+      </c>
+      <c r="B42" s="18">
         <v>4</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="18">
+      <c r="C42" s="18">
+        <v>8</v>
+      </c>
+      <c r="D42" s="18">
         <v>4</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="23">
+      <c r="E42" s="18">
         <v>4</v>
       </c>
-      <c r="H29" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="20">
+      <c r="F42" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="18">
+        <v>7091581114</v>
+      </c>
+      <c r="H42" s="18">
+        <v>2021</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L42" s="18">
+        <v>1</v>
+      </c>
+      <c r="M42" s="18">
+        <v>56412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="31"/>
+      <c r="D45" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="25">
+        <v>1</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="26">
+        <v>2</v>
+      </c>
+      <c r="E47" s="26">
+        <v>1</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="25">
+        <v>2</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="26">
+        <v>7</v>
+      </c>
+      <c r="E48" s="26">
+        <v>2</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="25">
+        <v>3</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="26">
+        <v>9</v>
+      </c>
+      <c r="E49" s="26">
+        <v>3</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="25">
+        <v>4</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="26">
+        <v>4</v>
+      </c>
+      <c r="E50" s="26">
+        <v>4</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="25">
         <v>5</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="18">
-        <v>5</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="23">
-        <v>5</v>
-      </c>
-      <c r="H30" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
+      <c r="B51" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="25">
         <v>6</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="G31" s="23">
-        <v>6</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="20">
+      <c r="B52" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="25">
         <v>7</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="23">
-        <v>7</v>
-      </c>
-      <c r="H32" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="20">
+      <c r="B53" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="25">
         <v>8</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="23">
-        <v>8</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G34" s="23">
+      <c r="B54" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="25">
         <v>9</v>
       </c>
-      <c r="H34" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G35" s="23">
-        <v>10</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="25" t="s">
+      <c r="B55" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F38" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="K38" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="L38" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="M38" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="26">
-        <v>1</v>
-      </c>
-      <c r="B39" s="26">
-        <v>2</v>
-      </c>
-      <c r="C39" s="26">
+      <c r="B58" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="20">
+        <v>2</v>
+      </c>
+      <c r="B59" s="20">
+        <v>2</v>
+      </c>
+      <c r="C59" s="20">
+        <v>1</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="23">
+        <v>44642</v>
+      </c>
+      <c r="F59" s="47">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="20">
         <v>3</v>
       </c>
-      <c r="D39" s="26">
+      <c r="B60" s="20">
         <v>3</v>
       </c>
-      <c r="E39" s="26">
-        <v>1</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="26">
-        <v>47705773937</v>
-      </c>
-      <c r="H39" s="26">
-        <v>2018</v>
-      </c>
-      <c r="I39" s="26">
-        <v>1</v>
-      </c>
-      <c r="J39" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="K39" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="L39" s="26">
-        <v>1</v>
-      </c>
-      <c r="M39" s="26">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
+      <c r="C60" s="20">
+        <v>2</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="23">
+        <v>44640</v>
+      </c>
+      <c r="F60" s="47">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="40"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="24">
+        <v>1</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="24">
+        <v>2</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="24">
+        <v>3</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="13">
+        <v>1</v>
+      </c>
+      <c r="B71" s="13">
+        <v>2</v>
+      </c>
+      <c r="C71" s="13">
+        <v>2</v>
+      </c>
+      <c r="D71" s="13">
+        <v>1</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G71" s="38">
+        <v>44642</v>
+      </c>
+      <c r="H71" s="38">
+        <v>44643</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="13">
         <v>4</v>
       </c>
-      <c r="B40" s="26">
-        <v>2</v>
-      </c>
-      <c r="C40" s="26">
-        <v>5</v>
-      </c>
-      <c r="D40" s="26">
-        <v>1</v>
-      </c>
-      <c r="E40" s="26">
-        <v>2</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="26">
-        <v>73939448020</v>
-      </c>
-      <c r="H40" s="26">
-        <v>2022</v>
-      </c>
-      <c r="I40" s="26">
-        <v>1</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="L40" s="26">
-        <v>0</v>
-      </c>
-      <c r="M40" s="26">
-        <v>25320</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="26">
-        <v>5</v>
-      </c>
-      <c r="B41" s="26">
-        <v>4</v>
-      </c>
-      <c r="C41" s="26">
-        <v>1</v>
-      </c>
-      <c r="D41" s="26">
-        <v>2</v>
-      </c>
-      <c r="E41" s="26">
+      <c r="B72" s="13">
+        <v>1</v>
+      </c>
+      <c r="C72" s="13">
         <v>3</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="26">
-        <v>59473770008</v>
-      </c>
-      <c r="H41" s="26">
-        <v>2020</v>
-      </c>
-      <c r="I41" s="26">
-        <v>1</v>
-      </c>
-      <c r="J41" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="K41" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="L41" s="26">
-        <v>0</v>
-      </c>
-      <c r="M41" s="26">
-        <v>12934</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="26">
-        <v>8</v>
-      </c>
-      <c r="B42" s="26">
-        <v>4</v>
-      </c>
-      <c r="C42" s="26">
-        <v>8</v>
-      </c>
-      <c r="D42" s="26">
-        <v>4</v>
-      </c>
-      <c r="E42" s="26">
-        <v>4</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="26">
-        <v>7091581114</v>
-      </c>
-      <c r="H42" s="26">
-        <v>2021</v>
-      </c>
-      <c r="I42" s="26">
-        <v>1</v>
-      </c>
-      <c r="J42" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="K42" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="L42" s="26">
-        <v>1</v>
-      </c>
-      <c r="M42" s="26">
-        <v>56412</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="38"/>
-      <c r="D45" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="39">
-        <v>1</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="41">
-        <v>2</v>
-      </c>
-      <c r="E47" s="41">
-        <v>1</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="39">
-        <v>2</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="41">
-        <v>7</v>
-      </c>
-      <c r="E48" s="41">
-        <v>2</v>
-      </c>
-      <c r="F48" s="42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="39">
-        <v>3</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="D49" s="41">
-        <v>9</v>
-      </c>
-      <c r="E49" s="41">
-        <v>3</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="39">
-        <v>4</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="41">
-        <v>4</v>
-      </c>
-      <c r="E50" s="41">
-        <v>4</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="39">
-        <v>5</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="39">
-        <v>6</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="39">
-        <v>7</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="39">
-        <v>8</v>
-      </c>
-      <c r="B54" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="39">
-        <v>9</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="33">
-        <v>2</v>
-      </c>
-      <c r="B59" s="33">
-        <v>2</v>
-      </c>
-      <c r="C59" s="33">
-        <v>1</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="36">
-        <v>44642</v>
-      </c>
-      <c r="F59" s="36">
-        <v>44645</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="33">
-        <v>3</v>
-      </c>
-      <c r="B60" s="33">
-        <v>3</v>
-      </c>
-      <c r="C60" s="33">
-        <v>2</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="36">
-        <v>44640</v>
-      </c>
-      <c r="F60" s="36">
-        <v>44641</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="43"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="37">
-        <v>1</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="37">
-        <v>2</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="37">
-        <v>3</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D72" s="13">
+        <v>2</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G72" s="38">
+        <v>38798</v>
+      </c>
+      <c r="H72" s="38">
+        <v>38798</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>1</v>
+      </c>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>141</v>
       </c>
-      <c r="D70" t="s">
-        <v>142</v>
-      </c>
-      <c r="E70" t="s">
-        <v>143</v>
-      </c>
-      <c r="F70" t="s">
-        <v>144</v>
-      </c>
-      <c r="G70" t="s">
-        <v>145</v>
-      </c>
-      <c r="H70" t="s">
-        <v>146</v>
-      </c>
-      <c r="I70" t="s">
-        <v>147</v>
-      </c>
-      <c r="J70" t="s">
-        <v>148</v>
-      </c>
-      <c r="K70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>150</v>
-      </c>
-      <c r="E71" t="s">
-        <v>151</v>
-      </c>
-      <c r="F71" s="8">
-        <v>43446</v>
-      </c>
-      <c r="G71" s="8">
-        <v>43447</v>
-      </c>
-      <c r="H71" t="s">
-        <v>154</v>
-      </c>
-      <c r="I71" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>4</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" t="s">
-        <v>152</v>
+      <c r="B79" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:F45"/>
+  <mergeCells count="12">
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A69:N69"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:F45"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" xr:uid="{6E189699-9195-414A-8E43-26CCFC52E670}"/>

--- a/Banco de dados/Modelagens/Loggex-modelo-fisico.xlsx
+++ b/Banco de dados/Modelagens/Loggex-modelo-fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50374464812.INFOSCS\Desktop\adada\Backend-Loggex\Banco de dados\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49DF079-1510-4C90-8C4D-E56610C9B3DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E59A106-590D-442F-8EDE-5A9CDC425758}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{71493EB3-A1F5-4AF9-BC1F-4FAAD26894E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="176">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -357,12 +357,6 @@
     <t>descricao</t>
   </si>
   <si>
-    <t>dataInicio</t>
-  </si>
-  <si>
-    <t>DataFim</t>
-  </si>
-  <si>
     <t>situacao</t>
   </si>
   <si>
@@ -520,13 +514,52 @@
   </si>
   <si>
     <t>idGestor</t>
+  </si>
+  <si>
+    <t>kit de emergencia</t>
+  </si>
+  <si>
+    <t>pneus</t>
+  </si>
+  <si>
+    <t>para-brisa</t>
+  </si>
+  <si>
+    <t>imagemVeiculo</t>
+  </si>
+  <si>
+    <t>idImagemVeiculo</t>
+  </si>
+  <si>
+    <t>enderecoImagem</t>
+  </si>
+  <si>
+    <t>freios</t>
+  </si>
+  <si>
+    <t>retrovisores</t>
+  </si>
+  <si>
+    <t>farois</t>
+  </si>
+  <si>
+    <t>refrigerador</t>
+  </si>
+  <si>
+    <t>tanque</t>
+  </si>
+  <si>
+    <t>nomePeca</t>
+  </si>
+  <si>
+    <t>estadoPeca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,8 +582,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,8 +676,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -644,12 +691,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -696,43 +823,7 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -751,6 +842,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1066,17 +1204,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCD901B-21F1-4AED-B0AC-9852B237E28A}">
-  <dimension ref="A1:Z79"/>
+  <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
@@ -1085,14 +1223,15 @@
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.44140625" customWidth="1"/>
-    <col min="12" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="47"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1119,19 +1258,19 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
+      <c r="A7" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1184,7 +1323,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="33">
         <v>32373</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -1199,7 +1338,7 @@
       <c r="J9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="36">
         <v>12345678910</v>
       </c>
     </row>
@@ -1219,7 +1358,7 @@
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="33">
         <v>31136</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -1234,7 +1373,7 @@
       <c r="J10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="36">
         <v>98765432198</v>
       </c>
     </row>
@@ -1254,7 +1393,7 @@
       <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="33">
         <v>33228</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -1269,19 +1408,19 @@
       <c r="J11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="36">
         <v>97561230518</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -1319,7 +1458,7 @@
       <c r="E15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="32">
         <v>29789140</v>
       </c>
     </row>
@@ -1339,7 +1478,7 @@
       <c r="E16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="32">
         <v>12345678</v>
       </c>
     </row>
@@ -1359,28 +1498,32 @@
       <c r="E17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="32">
         <v>10273947</v>
       </c>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="43"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="43"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="I19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="31"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -1402,10 +1545,16 @@
         <v>37</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="43"/>
+        <v>117</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="31"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
@@ -1423,12 +1572,19 @@
       <c r="E21" s="6">
         <v>1</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="34">
         <v>12345678</v>
       </c>
       <c r="G21" s="19">
         <v>7</v>
       </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="59"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
@@ -1446,26 +1602,34 @@
       <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="34">
         <v>98765432</v>
       </c>
       <c r="G22" s="19">
         <v>9</v>
       </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="15"/>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="G24" s="35" t="s">
+      <c r="E24" s="57"/>
+      <c r="G24" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="35"/>
+      <c r="H24" s="58"/>
+      <c r="J24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
@@ -1486,6 +1650,15 @@
       <c r="H25" s="16" t="s">
         <v>73</v>
       </c>
+      <c r="J25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
@@ -1506,6 +1679,13 @@
       <c r="H26" s="16" t="s">
         <v>74</v>
       </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
@@ -1526,6 +1706,13 @@
       <c r="H27" s="16" t="s">
         <v>75</v>
       </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
@@ -1546,6 +1733,13 @@
       <c r="H28" s="16" t="s">
         <v>76</v>
       </c>
+      <c r="J28" s="1">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
@@ -1566,6 +1760,13 @@
       <c r="H29" s="16" t="s">
         <v>77</v>
       </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
@@ -1646,21 +1847,21 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="s">
@@ -1673,7 +1874,7 @@
         <v>72</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>86</v>
@@ -1700,7 +1901,7 @@
         <v>93</v>
       </c>
       <c r="M38" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -1868,31 +2069,31 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" s="31"/>
-      <c r="D45" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
+      <c r="A45" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="49"/>
+      <c r="D45" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="F46" s="26" t="s">
         <v>123</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -1900,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D47" s="26">
         <v>2</v>
@@ -1909,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -1917,7 +2118,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D48" s="26">
         <v>7</v>
@@ -1926,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1934,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D49" s="26">
         <v>9</v>
@@ -1943,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1951,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D50" s="26">
         <v>4</v>
@@ -1960,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1968,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1976,7 +2177,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1984,7 +2185,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1992,7 +2193,7 @@
         <v>8</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2000,18 +2201,18 @@
         <v>9</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
@@ -2026,12 +2227,8 @@
       <c r="D58" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E58" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>111</v>
-      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="20"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
@@ -2044,14 +2241,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E59" s="23">
-        <v>44642</v>
-      </c>
-      <c r="F59" s="47">
-        <v>44645</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E59" s="23"/>
+      <c r="F59" s="35"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
@@ -2064,27 +2257,23 @@
         <v>2</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E60" s="23">
-        <v>44640</v>
-      </c>
-      <c r="F60" s="47">
-        <v>44641</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="35"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" s="40"/>
+      <c r="A63" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="52"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
@@ -2092,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -2100,7 +2289,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
@@ -2108,26 +2297,26 @@
         <v>3</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
+      <c r="A69" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="55"/>
+      <c r="L69" s="55"/>
+      <c r="M69" s="55"/>
+      <c r="N69" s="55"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
@@ -2140,28 +2329,28 @@
         <v>107</v>
       </c>
       <c r="D70" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="G70" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="H70" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="G70" s="13" t="s">
+      <c r="I70" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="H70" s="13" t="s">
+      <c r="J70" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I70" s="13" t="s">
+      <c r="K70" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="J70" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="K70" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="L70" s="13" t="s">
         <v>109</v>
@@ -2183,28 +2372,28 @@
         <v>1</v>
       </c>
       <c r="E71" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G71" s="28">
+        <v>44642</v>
+      </c>
+      <c r="H71" s="28">
+        <v>44643</v>
+      </c>
+      <c r="I71" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="J71" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G71" s="38">
-        <v>44642</v>
-      </c>
-      <c r="H71" s="38">
-        <v>44643</v>
-      </c>
-      <c r="I71" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>152</v>
-      </c>
       <c r="K71" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L71" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="L71" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
@@ -2223,65 +2412,332 @@
         <v>2</v>
       </c>
       <c r="E72" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72" s="28">
+        <v>38798</v>
+      </c>
+      <c r="H72" s="28">
+        <v>38798</v>
+      </c>
+      <c r="I72" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F72" s="13" t="s">
+      <c r="J72" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="G72" s="38">
-        <v>38798</v>
-      </c>
-      <c r="H72" s="38">
-        <v>38798</v>
-      </c>
-      <c r="I72" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="J72" s="13" t="s">
+      <c r="K72" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="K72" s="13" t="s">
+      <c r="L72" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="L72" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="46" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="38">
+        <v>1</v>
+      </c>
+      <c r="B80" s="39">
+        <v>1</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="41">
+        <v>1</v>
+      </c>
+      <c r="B81" s="37">
+        <v>2</v>
+      </c>
+      <c r="C81" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="D81" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="41">
+        <v>1</v>
+      </c>
+      <c r="B82" s="37">
+        <v>3</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="41">
+        <v>1</v>
+      </c>
+      <c r="B83" s="37">
+        <v>4</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D83" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="41">
+        <v>1</v>
+      </c>
+      <c r="B84" s="37">
+        <v>5</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="41">
+        <v>1</v>
+      </c>
+      <c r="B85" s="37">
+        <v>6</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="43">
+        <v>1</v>
+      </c>
+      <c r="B86" s="44">
+        <v>7</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="38">
+        <v>2</v>
+      </c>
+      <c r="B87" s="39">
+        <v>8</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="41">
+        <v>2</v>
+      </c>
+      <c r="B88" s="37">
+        <v>9</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="41">
+        <v>2</v>
+      </c>
+      <c r="B89" s="37">
+        <v>10</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="41">
+        <v>2</v>
+      </c>
+      <c r="B90" s="37">
+        <v>11</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="41">
+        <v>2</v>
+      </c>
+      <c r="B91" s="37">
+        <v>12</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="43">
+        <v>2</v>
+      </c>
+      <c r="B92" s="44">
         <v>13</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C92" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D92" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="38">
+        <v>3</v>
+      </c>
+      <c r="B93" s="39">
+        <v>14</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="41">
+        <v>3</v>
+      </c>
+      <c r="B94" s="37">
+        <v>15</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="41">
+        <v>3</v>
+      </c>
+      <c r="B95" s="37">
+        <v>16</v>
+      </c>
+      <c r="C95" s="37" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>1</v>
-      </c>
-      <c r="B76" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>141</v>
-      </c>
-      <c r="B79" t="s">
-        <v>162</v>
+      <c r="D95" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="41">
+        <v>3</v>
+      </c>
+      <c r="B96" s="37">
+        <v>17</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="41">
+        <v>3</v>
+      </c>
+      <c r="B97" s="37">
+        <v>18</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="41">
+        <v>3</v>
+      </c>
+      <c r="B98" s="37">
+        <v>19</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D98" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="43">
+        <v>3</v>
+      </c>
+      <c r="B99" s="44">
+        <v>20</v>
+      </c>
+      <c r="C99" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D99" s="45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2295,9 +2751,9 @@
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A57:D57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" xr:uid="{6E189699-9195-414A-8E43-26CCFC52E670}"/>
